--- a/resource/reports/teamScores/2017autumn_team_score_list.xlsx
+++ b/resource/reports/teamScores/2017autumn_team_score_list.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>团队id</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>分数</t>
-  </si>
-  <si>
-    <t>uranus</t>
   </si>
 </sst>
 </file>
@@ -361,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,17 +377,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resource/reports/teamScores/2017autumn_team_score_list.xlsx
+++ b/resource/reports/teamScores/2017autumn_team_score_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>团队id</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>分数</t>
+  </si>
+  <si>
+    <t>test tean 1</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,6 +380,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resource/reports/teamScores/2017autumn_team_score_list.xlsx
+++ b/resource/reports/teamScores/2017autumn_team_score_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>团队id</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>test tean 1</t>
+  </si>
+  <si>
+    <t>团队1</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +391,18 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>

--- a/resource/reports/teamScores/2017autumn_team_score_list.xlsx
+++ b/resource/reports/teamScores/2017autumn_team_score_list.xlsx
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -402,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>9.9</v>
+        <v>22.2</v>
       </c>
     </row>
   </sheetData>

--- a/resource/reports/teamScores/2017autumn_team_score_list.xlsx
+++ b/resource/reports/teamScores/2017autumn_team_score_list.xlsx
@@ -394,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>14.9</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -405,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>22.2</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>19.8</v>
+        <v>25.4</v>
       </c>
     </row>
   </sheetData>
